--- a/biology/Histoire de la zoologie et de la botanique/Baill/Baill..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Baill/Baill..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Ernest Baillon est un botaniste et un médecin français, né le 30 novembre 1827 à Calais et mort le 19 juillet 1895 à Paris.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son doctorat en médecine à Paris en 1855 et passe l'agrégation en médecine en 1857. Il passe aussi un doctorat en sciences naturelles en 1858. Il succède à Moquin-Tandon à la chaire d'histoire naturelle médicale de l'école de médecine de Paris[1] en 1863[2]. Il devient, plus tard, professeur d'hygiène et d'histoire naturelle à l'École centrale des arts et manufactures[1].
-Il est fait chevalier de la Légion d'honneur le 14 août 1867 et promu officier le 13 juillet 1888[3].
-Jacques Leandri (1903-1982) — qui ne l'a pas connu personnellement puisqu'il est né après la mort de Baillon — dit de lui : « D'un caractère à la fois difficile et ironique qui lui avait fait des ennemis et si ses partisans, au Muséum comme à l'Institut, étaient chauds et convaincus, ses ennemis ne l'étaient pas moins » ; et François Gagnepain (1866-1952) : « Beaucoup d'esprit mais un peu pointu »[1]. De fait, Baillon ne met pas de gants dans ses critiques. On peut lire par exemple : « Il paraît qu'avec son inexactitude habituelle dans l'observation de ce qui concerne l'organisation végétale, il (Duchartre) aura pris pour un ovule unique un gros placenta tout chargé d'ovules anatropes » ; et, moins de 20 lignes plus loin : « Je n'ai pas besoin de dire que celui dont les descriptions réunissent le plus d'erreurs est, comme toujours, M. Decaisne », suivi de démonstration à l'appui[4]. Ce qui colore l'attitude de Decaisne (voir ci-dessous la section « Sociétés savantes »), mais sur le fond Baillon a raison : 150 ans plus tard on s'étonne encore de la « relative médiocrité théorique de Joseph Decaisne »[5]. Baillon ne réserve pas ses sarcasmes à ses collègues : la Revue encyclopédique de 1895[6] précise qu'il a une réputation d’examinateur terrible et est particulièrement redouté des étudiants en médecine[7]. Ce qui ne l'empêche pas d'emmener un groupe d'étudiants sur la tombe de Jean-Jacques Rousseau à Ermenonville pour le centenaire de la mort du « père de la Révolution » et d'y prononcer un discours célébrant l'herboristerie et la botanique, la science de l'observation primant sur le savoir des mots[8].
-On doit à Henri Baillon un Dictionnaire de botanique ainsi qu'une volumineuse Histoire des plantes[9].
-Il meurt subitement, frappé d'une congestion dans son bain[1]. Sa tombe est au cimetière de Montparnasse (Paris), 8e division[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son doctorat en médecine à Paris en 1855 et passe l'agrégation en médecine en 1857. Il passe aussi un doctorat en sciences naturelles en 1858. Il succède à Moquin-Tandon à la chaire d'histoire naturelle médicale de l'école de médecine de Paris en 1863. Il devient, plus tard, professeur d'hygiène et d'histoire naturelle à l'École centrale des arts et manufactures.
+Il est fait chevalier de la Légion d'honneur le 14 août 1867 et promu officier le 13 juillet 1888.
+Jacques Leandri (1903-1982) — qui ne l'a pas connu personnellement puisqu'il est né après la mort de Baillon — dit de lui : « D'un caractère à la fois difficile et ironique qui lui avait fait des ennemis et si ses partisans, au Muséum comme à l'Institut, étaient chauds et convaincus, ses ennemis ne l'étaient pas moins » ; et François Gagnepain (1866-1952) : « Beaucoup d'esprit mais un peu pointu ». De fait, Baillon ne met pas de gants dans ses critiques. On peut lire par exemple : « Il paraît qu'avec son inexactitude habituelle dans l'observation de ce qui concerne l'organisation végétale, il (Duchartre) aura pris pour un ovule unique un gros placenta tout chargé d'ovules anatropes » ; et, moins de 20 lignes plus loin : « Je n'ai pas besoin de dire que celui dont les descriptions réunissent le plus d'erreurs est, comme toujours, M. Decaisne », suivi de démonstration à l'appui. Ce qui colore l'attitude de Decaisne (voir ci-dessous la section « Sociétés savantes »), mais sur le fond Baillon a raison : 150 ans plus tard on s'étonne encore de la « relative médiocrité théorique de Joseph Decaisne ». Baillon ne réserve pas ses sarcasmes à ses collègues : la Revue encyclopédique de 1895 précise qu'il a une réputation d’examinateur terrible et est particulièrement redouté des étudiants en médecine. Ce qui ne l'empêche pas d'emmener un groupe d'étudiants sur la tombe de Jean-Jacques Rousseau à Ermenonville pour le centenaire de la mort du « père de la Révolution » et d'y prononcer un discours célébrant l'herboristerie et la botanique, la science de l'observation primant sur le savoir des mots.
+On doit à Henri Baillon un Dictionnaire de botanique ainsi qu'une volumineuse Histoire des plantes.
+Il meurt subitement, frappé d'une congestion dans son bain. Sa tombe est au cimetière de Montparnasse (Paris), 8e division.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est membre de la Société botanique de France depuis son origine en 1854[réf. nécessaire], de la Royal Society[1] le 26 avril 1894, de l'Académie roumaine,[réf. nécessaire] de l'Académie des sciences de Saint-Pétersbourg et de la Société Royale d'Upsala (Suéde). Il n'a pas été membre de l'Académie des sciences de Paris : Decaisne ne lui aura pas pardonné les 112 pages que Baillon a consacrées à décrire ses erreurs botaniques[1],[11]…
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est membre de la Société botanique de France depuis son origine en 1854[réf. nécessaire], de la Royal Society le 26 avril 1894, de l'Académie roumaine,[réf. nécessaire] de l'Académie des sciences de Saint-Pétersbourg et de la Société Royale d'Upsala (Suéde). Il n'a pas été membre de l'Académie des sciences de Paris : Decaisne ne lui aura pas pardonné les 112 pages que Baillon a consacrées à décrire ses erreurs botaniques,…
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir la liste des publications disponibles sur biodiversitylibrary.org.
 </t>
